--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H2">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I2">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J2">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.6273631987605</v>
+        <v>1.743911</v>
       </c>
       <c r="N2">
-        <v>1.6273631987605</v>
+        <v>3.487822</v>
       </c>
       <c r="O2">
-        <v>0.01090574480407747</v>
+        <v>0.01143028478536476</v>
       </c>
       <c r="P2">
-        <v>0.01090574480407747</v>
+        <v>0.007740067166750973</v>
       </c>
       <c r="Q2">
-        <v>50.12849997178365</v>
+        <v>55.186904160102</v>
       </c>
       <c r="R2">
-        <v>50.12849997178365</v>
+        <v>220.747616640408</v>
       </c>
       <c r="S2">
-        <v>0.0004497070797698426</v>
+        <v>0.0004064587239746333</v>
       </c>
       <c r="T2">
-        <v>0.0004497070797698426</v>
+        <v>0.0001895125578531518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H3">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I3">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J3">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.70782810842218</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N3">
-        <v>4.70782810842218</v>
+        <v>14.978072</v>
       </c>
       <c r="O3">
-        <v>0.03154942422872815</v>
+        <v>0.03272407603669718</v>
       </c>
       <c r="P3">
-        <v>0.03154942422872815</v>
+        <v>0.03323887609758527</v>
       </c>
       <c r="Q3">
-        <v>145.0176342809969</v>
+        <v>157.996102623568</v>
       </c>
       <c r="R3">
-        <v>145.0176342809969</v>
+        <v>947.976615741408</v>
       </c>
       <c r="S3">
-        <v>0.001300965655552164</v>
+        <v>0.001163661836856006</v>
       </c>
       <c r="T3">
-        <v>0.001300965655552164</v>
+        <v>0.0008138410550849992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H4">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I4">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J4">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.8750799507701</v>
+        <v>60.43047966666666</v>
       </c>
       <c r="N4">
-        <v>57.8750799507701</v>
+        <v>181.291439</v>
       </c>
       <c r="O4">
-        <v>0.3878487930287584</v>
+        <v>0.3960853462740898</v>
       </c>
       <c r="P4">
-        <v>0.3878487930287584</v>
+        <v>0.4023163781342445</v>
       </c>
       <c r="Q4">
-        <v>1782.75565398608</v>
+        <v>1912.351656542866</v>
       </c>
       <c r="R4">
-        <v>1782.75565398608</v>
+        <v>11474.1099392572</v>
       </c>
       <c r="S4">
-        <v>0.01599325412786195</v>
+        <v>0.01408471857479445</v>
       </c>
       <c r="T4">
-        <v>0.01599325412786195</v>
+        <v>0.009850561273416084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H5">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I5">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J5">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5917667492009</v>
+        <v>78.64478033333333</v>
       </c>
       <c r="N5">
-        <v>78.5917667492009</v>
+        <v>235.934341</v>
       </c>
       <c r="O5">
-        <v>0.526681291872145</v>
+        <v>0.5154691014005035</v>
       </c>
       <c r="P5">
-        <v>0.526681291872145</v>
+        <v>0.5235782233964714</v>
       </c>
       <c r="Q5">
-        <v>2420.902340836054</v>
+        <v>2488.751980432454</v>
       </c>
       <c r="R5">
-        <v>2420.902340836054</v>
+        <v>14932.51188259472</v>
       </c>
       <c r="S5">
-        <v>0.02171812287856538</v>
+        <v>0.0183299818979019</v>
       </c>
       <c r="T5">
-        <v>0.02171812287856538</v>
+        <v>0.0128196107623347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H6">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I6">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J6">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3967099153019</v>
+        <v>1.412457333333333</v>
       </c>
       <c r="N6">
-        <v>1.3967099153019</v>
+        <v>4.237372000000001</v>
       </c>
       <c r="O6">
-        <v>0.009360026030580596</v>
+        <v>0.009257805912788485</v>
       </c>
       <c r="P6">
-        <v>0.009360026030580596</v>
+        <v>0.009403445442602836</v>
       </c>
       <c r="Q6">
-        <v>43.02356904907825</v>
+        <v>44.697893117768</v>
       </c>
       <c r="R6">
-        <v>43.02356904907825</v>
+        <v>268.1873587066081</v>
       </c>
       <c r="S6">
-        <v>0.0003859681340799701</v>
+        <v>0.000329205793974165</v>
       </c>
       <c r="T6">
-        <v>0.0003859681340799701</v>
+        <v>0.0002302397330756345</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H7">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I7">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J7">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.0219818852011</v>
+        <v>5.3450205</v>
       </c>
       <c r="N7">
-        <v>5.0219818852011</v>
+        <v>10.690041</v>
       </c>
       <c r="O7">
-        <v>0.0336547200357106</v>
+        <v>0.03503338559055636</v>
       </c>
       <c r="P7">
-        <v>0.0336547200357106</v>
+        <v>0.02372300976234502</v>
       </c>
       <c r="Q7">
-        <v>154.6946735567975</v>
+        <v>169.145750022381</v>
       </c>
       <c r="R7">
-        <v>154.6946735567975</v>
+        <v>676.583000089524</v>
       </c>
       <c r="S7">
-        <v>0.001387779206246638</v>
+        <v>0.001245780439511109</v>
       </c>
       <c r="T7">
-        <v>0.001387779206246638</v>
+        <v>0.0005808487398339321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H8">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J8">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.6273631987605</v>
+        <v>1.743911</v>
       </c>
       <c r="N8">
-        <v>1.6273631987605</v>
+        <v>3.487822</v>
       </c>
       <c r="O8">
-        <v>0.01090574480407747</v>
+        <v>0.01143028478536476</v>
       </c>
       <c r="P8">
-        <v>0.01090574480407747</v>
+        <v>0.007740067166750973</v>
       </c>
       <c r="Q8">
-        <v>123.2387110261521</v>
+        <v>145.1412545121804</v>
       </c>
       <c r="R8">
-        <v>123.2387110261521</v>
+        <v>870.847527073082</v>
       </c>
       <c r="S8">
-        <v>0.001105585064012806</v>
+        <v>0.001068984209260077</v>
       </c>
       <c r="T8">
-        <v>0.001105585064012806</v>
+        <v>0.00074762547776247</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H9">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J9">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.70782810842218</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N9">
-        <v>4.70782810842218</v>
+        <v>14.978072</v>
       </c>
       <c r="O9">
-        <v>0.03154942422872815</v>
+        <v>0.03272407603669718</v>
       </c>
       <c r="P9">
-        <v>0.03154942422872815</v>
+        <v>0.03323887609758527</v>
       </c>
       <c r="Q9">
-        <v>356.5194716560773</v>
+        <v>415.5288812050924</v>
       </c>
       <c r="R9">
-        <v>356.5194716560773</v>
+        <v>3739.759930845832</v>
       </c>
       <c r="S9">
-        <v>0.003198366808697407</v>
+        <v>0.003060424232880483</v>
       </c>
       <c r="T9">
-        <v>0.003198366808697407</v>
+        <v>0.003210596250313425</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H10">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J10">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.8750799507701</v>
+        <v>60.43047966666666</v>
       </c>
       <c r="N10">
-        <v>57.8750799507701</v>
+        <v>181.291439</v>
       </c>
       <c r="O10">
-        <v>0.3878487930287584</v>
+        <v>0.3960853462740898</v>
       </c>
       <c r="P10">
-        <v>0.3878487930287584</v>
+        <v>0.4023163781342445</v>
       </c>
       <c r="Q10">
-        <v>4382.826316277105</v>
+        <v>5029.474342207145</v>
       </c>
       <c r="R10">
-        <v>4382.826316277105</v>
+        <v>45265.26907986431</v>
       </c>
       <c r="S10">
-        <v>0.03931871141049152</v>
+        <v>0.03704273241104554</v>
       </c>
       <c r="T10">
-        <v>0.03931871141049152</v>
+        <v>0.03886038298302513</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H11">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J11">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5917667492009</v>
+        <v>78.64478033333333</v>
       </c>
       <c r="N11">
-        <v>78.5917667492009</v>
+        <v>235.934341</v>
       </c>
       <c r="O11">
-        <v>0.526681291872145</v>
+        <v>0.5154691014005035</v>
       </c>
       <c r="P11">
-        <v>0.526681291872145</v>
+        <v>0.5235782233964714</v>
       </c>
       <c r="Q11">
-        <v>5951.681861072336</v>
+        <v>6545.404024869875</v>
       </c>
       <c r="R11">
-        <v>5951.681861072336</v>
+        <v>58908.63622382887</v>
       </c>
       <c r="S11">
-        <v>0.05339304928271421</v>
+        <v>0.04820775160949201</v>
       </c>
       <c r="T11">
-        <v>0.05339304928271421</v>
+        <v>0.05057325873014692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H12">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J12">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.3967099153019</v>
+        <v>1.412457333333333</v>
       </c>
       <c r="N12">
-        <v>1.3967099153019</v>
+        <v>4.237372000000001</v>
       </c>
       <c r="O12">
-        <v>0.009360026030580596</v>
+        <v>0.009257805912788485</v>
       </c>
       <c r="P12">
-        <v>0.009360026030580596</v>
+        <v>0.009403445442602836</v>
       </c>
       <c r="Q12">
-        <v>105.7715510405766</v>
+        <v>117.5552131415702</v>
       </c>
       <c r="R12">
-        <v>105.7715510405766</v>
+        <v>1057.996918274132</v>
       </c>
       <c r="S12">
-        <v>0.0009488856711842299</v>
+        <v>0.0008658094281112574</v>
       </c>
       <c r="T12">
-        <v>0.0009488856711842299</v>
+        <v>0.0009082938481256536</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H13">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J13">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.0219818852011</v>
+        <v>5.3450205</v>
       </c>
       <c r="N13">
-        <v>5.0219818852011</v>
+        <v>10.690041</v>
       </c>
       <c r="O13">
-        <v>0.0336547200357106</v>
+        <v>0.03503338559055636</v>
       </c>
       <c r="P13">
-        <v>0.0336547200357106</v>
+        <v>0.02372300976234502</v>
       </c>
       <c r="Q13">
-        <v>380.3100468292901</v>
+        <v>444.8523925609286</v>
       </c>
       <c r="R13">
-        <v>380.3100468292901</v>
+        <v>2669.114355365571</v>
       </c>
       <c r="S13">
-        <v>0.0034117941024168</v>
+        <v>0.003276395706358526</v>
       </c>
       <c r="T13">
-        <v>0.0034117941024168</v>
+        <v>0.00229144348820708</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H14">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I14">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J14">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.6273631987605</v>
+        <v>1.743911</v>
       </c>
       <c r="N14">
-        <v>1.6273631987605</v>
+        <v>3.487822</v>
       </c>
       <c r="O14">
-        <v>0.01090574480407747</v>
+        <v>0.01143028478536476</v>
       </c>
       <c r="P14">
-        <v>0.01090574480407747</v>
+        <v>0.007740067166750973</v>
       </c>
       <c r="Q14">
-        <v>644.0685115863472</v>
+        <v>914.8154070728789</v>
       </c>
       <c r="R14">
-        <v>644.0685115863472</v>
+        <v>5488.892442437274</v>
       </c>
       <c r="S14">
-        <v>0.005777993949155453</v>
+        <v>0.00673773440801195</v>
       </c>
       <c r="T14">
-        <v>0.005777993949155453</v>
+        <v>0.004712232287615599</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H15">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I15">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J15">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.70782810842218</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N15">
-        <v>4.70782810842218</v>
+        <v>14.978072</v>
       </c>
       <c r="O15">
-        <v>0.03154942422872815</v>
+        <v>0.03272407603669718</v>
       </c>
       <c r="P15">
-        <v>0.03154942422872815</v>
+        <v>0.03323887609758527</v>
       </c>
       <c r="Q15">
-        <v>1863.237318445768</v>
+        <v>2619.050137659336</v>
       </c>
       <c r="R15">
-        <v>1863.237318445768</v>
+        <v>23571.45123893402</v>
       </c>
       <c r="S15">
-        <v>0.01671526205388317</v>
+        <v>0.01928964476590843</v>
       </c>
       <c r="T15">
-        <v>0.01671526205388317</v>
+        <v>0.02023616872782818</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H16">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I16">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J16">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.8750799507701</v>
+        <v>60.43047966666666</v>
       </c>
       <c r="N16">
-        <v>57.8750799507701</v>
+        <v>181.291439</v>
       </c>
       <c r="O16">
-        <v>0.3878487930287584</v>
+        <v>0.3960853462740898</v>
       </c>
       <c r="P16">
-        <v>0.3878487930287584</v>
+        <v>0.4023163781342445</v>
       </c>
       <c r="Q16">
-        <v>22905.46857039945</v>
+        <v>31700.43302431775</v>
       </c>
       <c r="R16">
-        <v>22905.46857039945</v>
+        <v>285303.8972188598</v>
       </c>
       <c r="S16">
-        <v>0.2054869263463367</v>
+        <v>0.2334778105893973</v>
       </c>
       <c r="T16">
-        <v>0.2054869263463367</v>
+        <v>0.2449343379117667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H17">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I17">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J17">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5917667492009</v>
+        <v>78.64478033333333</v>
       </c>
       <c r="N17">
-        <v>78.5917667492009</v>
+        <v>235.934341</v>
       </c>
       <c r="O17">
-        <v>0.526681291872145</v>
+        <v>0.5154691014005035</v>
       </c>
       <c r="P17">
-        <v>0.526681291872145</v>
+        <v>0.5235782233964714</v>
       </c>
       <c r="Q17">
-        <v>31104.60054132559</v>
+        <v>41255.23420334837</v>
       </c>
       <c r="R17">
-        <v>31104.60054132559</v>
+        <v>371297.1078301354</v>
       </c>
       <c r="S17">
-        <v>0.2790420436422503</v>
+        <v>0.3038501634902478</v>
       </c>
       <c r="T17">
-        <v>0.2790420436422503</v>
+        <v>0.3187597931940073</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H18">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I18">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J18">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.3967099153019</v>
+        <v>1.412457333333333</v>
       </c>
       <c r="N18">
-        <v>1.3967099153019</v>
+        <v>4.237372000000001</v>
       </c>
       <c r="O18">
-        <v>0.009360026030580596</v>
+        <v>0.009257805912788485</v>
       </c>
       <c r="P18">
-        <v>0.009360026030580596</v>
+        <v>0.009403445442602836</v>
       </c>
       <c r="Q18">
-        <v>552.7818725110417</v>
+        <v>740.9424737652359</v>
       </c>
       <c r="R18">
-        <v>552.7818725110417</v>
+        <v>6668.482263887124</v>
       </c>
       <c r="S18">
-        <v>0.004959053667605702</v>
+        <v>0.005457137649024983</v>
       </c>
       <c r="T18">
-        <v>0.004959053667605702</v>
+        <v>0.005724914044649724</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H19">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I19">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J19">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.0219818852011</v>
+        <v>5.3450205</v>
       </c>
       <c r="N19">
-        <v>5.0219818852011</v>
+        <v>10.690041</v>
       </c>
       <c r="O19">
-        <v>0.0336547200357106</v>
+        <v>0.03503338559055636</v>
       </c>
       <c r="P19">
-        <v>0.0336547200357106</v>
+        <v>0.02372300976234502</v>
       </c>
       <c r="Q19">
-        <v>1987.571305826914</v>
+        <v>2803.874225531225</v>
       </c>
       <c r="R19">
-        <v>1987.571305826914</v>
+        <v>16823.24535318735</v>
       </c>
       <c r="S19">
-        <v>0.01783067293617146</v>
+        <v>0.0206508982020179</v>
       </c>
       <c r="T19">
-        <v>0.01783067293617146</v>
+        <v>0.01444281169054343</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H20">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I20">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J20">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.6273631987605</v>
+        <v>1.743911</v>
       </c>
       <c r="N20">
-        <v>1.6273631987605</v>
+        <v>3.487822</v>
       </c>
       <c r="O20">
-        <v>0.01090574480407747</v>
+        <v>0.01143028478536476</v>
       </c>
       <c r="P20">
-        <v>0.01090574480407747</v>
+        <v>0.007740067166750973</v>
       </c>
       <c r="Q20">
-        <v>288.9044011633475</v>
+        <v>316.4873022142216</v>
       </c>
       <c r="R20">
-        <v>288.9044011633475</v>
+        <v>1898.92381328533</v>
       </c>
       <c r="S20">
-        <v>0.002591786202518626</v>
+        <v>0.002330970127242029</v>
       </c>
       <c r="T20">
-        <v>0.002591786202518626</v>
+        <v>0.001630232364457108</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H21">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I21">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J21">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.70782810842218</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N21">
-        <v>4.70782810842218</v>
+        <v>14.978072</v>
       </c>
       <c r="O21">
-        <v>0.03154942422872815</v>
+        <v>0.03272407603669718</v>
       </c>
       <c r="P21">
-        <v>0.03154942422872815</v>
+        <v>0.03323887609758527</v>
       </c>
       <c r="Q21">
-        <v>835.7767101281572</v>
+        <v>906.0801840710087</v>
       </c>
       <c r="R21">
-        <v>835.7767101281572</v>
+        <v>8154.721656639078</v>
       </c>
       <c r="S21">
-        <v>0.007497824667862417</v>
+        <v>0.006673398354939039</v>
       </c>
       <c r="T21">
-        <v>0.007497824667862417</v>
+        <v>0.007000855471285175</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H22">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I22">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J22">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>57.8750799507701</v>
+        <v>60.43047966666666</v>
       </c>
       <c r="N22">
-        <v>57.8750799507701</v>
+        <v>181.291439</v>
       </c>
       <c r="O22">
-        <v>0.3878487930287584</v>
+        <v>0.3960853462740898</v>
       </c>
       <c r="P22">
-        <v>0.3878487930287584</v>
+        <v>0.4023163781342445</v>
       </c>
       <c r="Q22">
-        <v>10274.5135985583</v>
+        <v>10967.00432603195</v>
       </c>
       <c r="R22">
-        <v>10274.5135985583</v>
+        <v>98703.03893428757</v>
       </c>
       <c r="S22">
-        <v>0.09217354417275589</v>
+        <v>0.08077341267868995</v>
       </c>
       <c r="T22">
-        <v>0.09217354417275589</v>
+        <v>0.08473688486878102</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H23">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I23">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J23">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5917667492009</v>
+        <v>78.64478033333333</v>
       </c>
       <c r="N23">
-        <v>78.5917667492009</v>
+        <v>235.934341</v>
       </c>
       <c r="O23">
-        <v>0.526681291872145</v>
+        <v>0.5154691014005035</v>
       </c>
       <c r="P23">
-        <v>0.526681291872145</v>
+        <v>0.5235782233964714</v>
       </c>
       <c r="Q23">
-        <v>13952.32934254707</v>
+        <v>14272.55998782434</v>
       </c>
       <c r="R23">
-        <v>13952.32934254707</v>
+        <v>128453.0398904191</v>
       </c>
       <c r="S23">
-        <v>0.1251675451720219</v>
+        <v>0.1051192598822483</v>
       </c>
       <c r="T23">
-        <v>0.1251675451720219</v>
+        <v>0.1102773589320383</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H24">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I24">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J24">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.3967099153019</v>
+        <v>1.412457333333333</v>
       </c>
       <c r="N24">
-        <v>1.3967099153019</v>
+        <v>4.237372000000001</v>
       </c>
       <c r="O24">
-        <v>0.009360026030580596</v>
+        <v>0.009257805912788485</v>
       </c>
       <c r="P24">
-        <v>0.009360026030580596</v>
+        <v>0.009403445442602836</v>
       </c>
       <c r="Q24">
-        <v>247.9567204091549</v>
+        <v>256.3346471920644</v>
       </c>
       <c r="R24">
-        <v>247.9567204091549</v>
+        <v>2307.01182472858</v>
       </c>
       <c r="S24">
-        <v>0.002224441040670956</v>
+        <v>0.001887938002572344</v>
       </c>
       <c r="T24">
-        <v>0.002224441040670956</v>
+        <v>0.001980577269896327</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H25">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I25">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J25">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.0219818852011</v>
+        <v>5.3450205</v>
       </c>
       <c r="N25">
-        <v>5.0219818852011</v>
+        <v>10.690041</v>
       </c>
       <c r="O25">
-        <v>0.0336547200357106</v>
+        <v>0.03503338559055636</v>
       </c>
       <c r="P25">
-        <v>0.0336547200357106</v>
+        <v>0.02372300976234502</v>
       </c>
       <c r="Q25">
-        <v>891.5481622678188</v>
+        <v>970.0214737591024</v>
       </c>
       <c r="R25">
-        <v>891.5481622678188</v>
+        <v>5820.128842554614</v>
       </c>
       <c r="S25">
-        <v>0.007998155156314459</v>
+        <v>0.007144334266482784</v>
       </c>
       <c r="T25">
-        <v>0.007998155156314459</v>
+        <v>0.004996599830947058</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H26">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I26">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J26">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.6273631987605</v>
+        <v>1.743911</v>
       </c>
       <c r="N26">
-        <v>1.6273631987605</v>
+        <v>3.487822</v>
       </c>
       <c r="O26">
-        <v>0.01090574480407747</v>
+        <v>0.01143028478536476</v>
       </c>
       <c r="P26">
-        <v>0.01090574480407747</v>
+        <v>0.007740067166750973</v>
       </c>
       <c r="Q26">
-        <v>24.93181267398131</v>
+        <v>27.54816852441767</v>
       </c>
       <c r="R26">
-        <v>24.93181267398131</v>
+        <v>165.289011146506</v>
       </c>
       <c r="S26">
-        <v>0.0002236654333821261</v>
+        <v>0.0002028958427127735</v>
       </c>
       <c r="T26">
-        <v>0.0002236654333821261</v>
+        <v>0.0001419011618975664</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H27">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I27">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J27">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.70782810842218</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N27">
-        <v>4.70782810842218</v>
+        <v>14.978072</v>
       </c>
       <c r="O27">
-        <v>0.03154942422872815</v>
+        <v>0.03272407603669718</v>
       </c>
       <c r="P27">
-        <v>0.03154942422872815</v>
+        <v>0.03323887609758527</v>
       </c>
       <c r="Q27">
-        <v>72.12568687179687</v>
+        <v>78.86840777747288</v>
       </c>
       <c r="R27">
-        <v>72.12568687179687</v>
+        <v>709.815669997256</v>
       </c>
       <c r="S27">
-        <v>0.0006470457332209646</v>
+        <v>0.0005808760769428785</v>
       </c>
       <c r="T27">
-        <v>0.0006470457332209646</v>
+        <v>0.0006093790966928376</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H28">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I28">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J28">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>57.8750799507701</v>
+        <v>60.43047966666666</v>
       </c>
       <c r="N28">
-        <v>57.8750799507701</v>
+        <v>181.291439</v>
       </c>
       <c r="O28">
-        <v>0.3878487930287584</v>
+        <v>0.3960853462740898</v>
       </c>
       <c r="P28">
-        <v>0.3878487930287584</v>
+        <v>0.4023163781342445</v>
       </c>
       <c r="Q28">
-        <v>886.6678642624562</v>
+        <v>954.6066501494219</v>
       </c>
       <c r="R28">
-        <v>886.6678642624562</v>
+        <v>8591.459851344798</v>
       </c>
       <c r="S28">
-        <v>0.007954373583643553</v>
+        <v>0.007030802086520159</v>
       </c>
       <c r="T28">
-        <v>0.007954373583643553</v>
+        <v>0.007375796653665751</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H29">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I29">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J29">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.5917667492009</v>
+        <v>78.64478033333333</v>
       </c>
       <c r="N29">
-        <v>78.5917667492009</v>
+        <v>235.934341</v>
       </c>
       <c r="O29">
-        <v>0.526681291872145</v>
+        <v>0.5154691014005035</v>
       </c>
       <c r="P29">
-        <v>0.526681291872145</v>
+        <v>0.5235782233964714</v>
       </c>
       <c r="Q29">
-        <v>1204.0552519565</v>
+        <v>1242.333847420238</v>
       </c>
       <c r="R29">
-        <v>1204.0552519565</v>
+        <v>11181.00462678214</v>
       </c>
       <c r="S29">
-        <v>0.01080168310529307</v>
+        <v>0.009149950301760024</v>
       </c>
       <c r="T29">
-        <v>0.01080168310529307</v>
+        <v>0.009598929394744526</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H30">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I30">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J30">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.3967099153019</v>
+        <v>1.412457333333333</v>
       </c>
       <c r="N30">
-        <v>1.3967099153019</v>
+        <v>4.237372000000001</v>
       </c>
       <c r="O30">
-        <v>0.009360026030580596</v>
+        <v>0.009257805912788485</v>
       </c>
       <c r="P30">
-        <v>0.009360026030580596</v>
+        <v>0.009403445442602836</v>
       </c>
       <c r="Q30">
-        <v>21.39811813043471</v>
+        <v>22.31226975012845</v>
       </c>
       <c r="R30">
-        <v>21.39811813043471</v>
+        <v>200.810427751156</v>
       </c>
       <c r="S30">
-        <v>0.0001919643560534317</v>
+        <v>0.0001643327675222552</v>
       </c>
       <c r="T30">
-        <v>0.0001919643560534317</v>
+        <v>0.0001723964153538268</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H31">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I31">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J31">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.0219818852011</v>
+        <v>5.3450205</v>
       </c>
       <c r="N31">
-        <v>5.0219818852011</v>
+        <v>10.690041</v>
       </c>
       <c r="O31">
-        <v>0.0336547200357106</v>
+        <v>0.03503338559055636</v>
       </c>
       <c r="P31">
-        <v>0.0336547200357106</v>
+        <v>0.02372300976234502</v>
       </c>
       <c r="Q31">
-        <v>76.93864019373596</v>
+        <v>84.43408264554051</v>
       </c>
       <c r="R31">
-        <v>76.93864019373596</v>
+        <v>506.6044958732431</v>
       </c>
       <c r="S31">
-        <v>0.0006902231509513196</v>
+        <v>0.0006218679959381815</v>
       </c>
       <c r="T31">
-        <v>0.0006902231509513196</v>
+        <v>0.0004349216326500099</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H32">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I32">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J32">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.6273631987605</v>
+        <v>1.743911</v>
       </c>
       <c r="N32">
-        <v>1.6273631987605</v>
+        <v>3.487822</v>
       </c>
       <c r="O32">
-        <v>0.01090574480407747</v>
+        <v>0.01143028478536476</v>
       </c>
       <c r="P32">
-        <v>0.01090574480407747</v>
+        <v>0.007740067166750973</v>
       </c>
       <c r="Q32">
-        <v>84.38299252295629</v>
+        <v>92.76706225946249</v>
       </c>
       <c r="R32">
-        <v>84.38299252295629</v>
+        <v>371.06824903785</v>
       </c>
       <c r="S32">
-        <v>0.0007570070752386191</v>
+        <v>0.0006832414741632936</v>
       </c>
       <c r="T32">
-        <v>0.0007570070752386191</v>
+        <v>0.0003185633171650776</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H33">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I33">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J33">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.70782810842218</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N33">
-        <v>4.70782810842218</v>
+        <v>14.978072</v>
       </c>
       <c r="O33">
-        <v>0.03154942422872815</v>
+        <v>0.03272407603669718</v>
       </c>
       <c r="P33">
-        <v>0.03154942422872815</v>
+        <v>0.03323887609758527</v>
       </c>
       <c r="Q33">
-        <v>244.113068536225</v>
+        <v>265.5853687011</v>
       </c>
       <c r="R33">
-        <v>244.113068536225</v>
+        <v>1593.5122122066</v>
       </c>
       <c r="S33">
-        <v>0.002189959309512031</v>
+        <v>0.001956070769170359</v>
       </c>
       <c r="T33">
-        <v>0.002189959309512031</v>
+        <v>0.001368035496380655</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H34">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I34">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J34">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>57.8750799507701</v>
+        <v>60.43047966666666</v>
       </c>
       <c r="N34">
-        <v>57.8750799507701</v>
+        <v>181.291439</v>
       </c>
       <c r="O34">
-        <v>0.3878487930287584</v>
+        <v>0.3960853462740898</v>
       </c>
       <c r="P34">
-        <v>0.3878487930287584</v>
+        <v>0.4023163781342445</v>
       </c>
       <c r="Q34">
-        <v>3000.972642413836</v>
+        <v>3214.589545915387</v>
       </c>
       <c r="R34">
-        <v>3000.972642413836</v>
+        <v>19287.53727549232</v>
       </c>
       <c r="S34">
-        <v>0.02692198338766878</v>
+        <v>0.02367586993364241</v>
       </c>
       <c r="T34">
-        <v>0.02692198338766878</v>
+        <v>0.01655841444358982</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H35">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I35">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J35">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.5917667492009</v>
+        <v>78.64478033333333</v>
       </c>
       <c r="N35">
-        <v>78.5917667492009</v>
+        <v>235.934341</v>
       </c>
       <c r="O35">
-        <v>0.526681291872145</v>
+        <v>0.5154691014005035</v>
       </c>
       <c r="P35">
-        <v>0.526681291872145</v>
+        <v>0.5235782233964714</v>
       </c>
       <c r="Q35">
-        <v>4075.186455620317</v>
+        <v>4183.496310054862</v>
       </c>
       <c r="R35">
-        <v>4075.186455620317</v>
+        <v>25100.97786032917</v>
       </c>
       <c r="S35">
-        <v>0.03655884779130007</v>
+        <v>0.03081199421885352</v>
       </c>
       <c r="T35">
-        <v>0.03655884779130007</v>
+        <v>0.02154927238319976</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H36">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I36">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J36">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.3967099153019</v>
+        <v>1.412457333333333</v>
       </c>
       <c r="N36">
-        <v>1.3967099153019</v>
+        <v>4.237372000000001</v>
       </c>
       <c r="O36">
-        <v>0.009360026030580596</v>
+        <v>0.009257805912788485</v>
       </c>
       <c r="P36">
-        <v>0.009360026030580596</v>
+        <v>0.009403445442602836</v>
       </c>
       <c r="Q36">
-        <v>72.4230229793985</v>
+        <v>75.13543832235</v>
       </c>
       <c r="R36">
-        <v>72.4230229793985</v>
+        <v>450.8126299341001</v>
       </c>
       <c r="S36">
-        <v>0.0006497131609863061</v>
+        <v>0.0005533822715834818</v>
       </c>
       <c r="T36">
-        <v>0.0006497131609863061</v>
+        <v>0.0003870241315016705</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H37">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I37">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J37">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.0219818852011</v>
+        <v>5.3450205</v>
       </c>
       <c r="N37">
-        <v>5.0219818852011</v>
+        <v>10.690041</v>
       </c>
       <c r="O37">
-        <v>0.0336547200357106</v>
+        <v>0.03503338559055636</v>
       </c>
       <c r="P37">
-        <v>0.0336547200357106</v>
+        <v>0.02372300976234502</v>
       </c>
       <c r="Q37">
-        <v>260.4027547090383</v>
+        <v>284.3274969316687</v>
       </c>
       <c r="R37">
-        <v>260.4027547090383</v>
+        <v>1137.309987726675</v>
       </c>
       <c r="S37">
-        <v>0.002336095483609929</v>
+        <v>0.00209410898024786</v>
       </c>
       <c r="T37">
-        <v>0.002336095483609929</v>
+        <v>0.0009763843801635187</v>
       </c>
     </row>
   </sheetData>
